--- a/gradefinal/studentsinfo.xlsx
+++ b/gradefinal/studentsinfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\docs\教学\2017-2018-2\毕业设计相关工作\成绩评定\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,10 @@
   </si>
   <si>
     <t>答辩委员会评语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该生毕业设计选题具有实际工程意义，设计质量良好，设计成果完整，具有较好的工程价值。答辩准备充分、称述问题清晰、回答问题良好。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +497,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -552,13 +556,16 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F2">
         <v>84</v>
       </c>
       <c r="G2">
         <v>80</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
@@ -575,7 +582,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F3">
         <v>79</v>
@@ -621,13 +628,16 @@
         <v>17</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>81.3</v>
       </c>
       <c r="F5">
         <v>84</v>
       </c>
       <c r="G5">
         <v>80</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
@@ -644,7 +654,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>70</v>
+        <v>72.3</v>
       </c>
       <c r="F6">
         <v>80</v>
@@ -667,7 +677,7 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7">
         <v>73</v>

--- a/gradefinal/studentsinfo.xlsx
+++ b/gradefinal/studentsinfo.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,23 +109,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>指导成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答辩委员会评语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该生毕业设计选题具有实际工程意义，设计质量良好，设计成果完整，具有较好的工程价值。答辩准备充分、称述问题清晰、回答问题良好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>答辩成绩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指导成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答辩委员会评语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该生毕业设计选题具有实际工程意义，设计质量良好，设计成果完整，具有较好的工程价值。答辩准备充分、称述问题清晰、回答问题良好。</t>
+    <t>报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答辩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -191,6 +199,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -200,7 +217,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -212,6 +229,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -494,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A2:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -506,187 +532,251 @@
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.109375" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
-    <col min="9" max="9" width="29.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>86</v>
-      </c>
-      <c r="F2">
-        <v>84</v>
-      </c>
-      <c r="G2">
-        <v>80</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>78</v>
-      </c>
-      <c r="F3">
-        <v>79</v>
-      </c>
-      <c r="G3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="F4" s="4">
+        <v>43</v>
+      </c>
+      <c r="G4" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H4" s="4">
+        <v>84</v>
+      </c>
+      <c r="I4" s="4">
+        <v>80</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="F5" s="4">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G5" s="4">
+        <v>8</v>
+      </c>
+      <c r="H5" s="4">
+        <v>79</v>
+      </c>
+      <c r="I5" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
-        <v>70</v>
-      </c>
-      <c r="F4">
+      <c r="E6" s="4">
+        <v>28.7</v>
+      </c>
+      <c r="F6" s="4">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="G6" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="H6" s="4">
         <v>73</v>
       </c>
-      <c r="G4">
+      <c r="I6" s="4">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5">
-        <v>81.3</v>
-      </c>
-      <c r="F5">
+      <c r="E7" s="4">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="F7" s="4">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4">
         <v>84</v>
       </c>
-      <c r="G5">
+      <c r="I7" s="4">
         <v>80</v>
       </c>
-      <c r="I5" t="s">
-        <v>30</v>
+      <c r="J7" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>72.3</v>
-      </c>
-      <c r="F6">
+      <c r="E8" s="4">
+        <v>31.3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G8" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="H8" s="4">
         <v>80</v>
       </c>
-      <c r="G6">
+      <c r="I8" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>71</v>
-      </c>
-      <c r="F7">
+      <c r="E9" s="4">
+        <v>31.3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>32</v>
+      </c>
+      <c r="G9" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="H9" s="4">
         <v>73</v>
       </c>
-      <c r="G7">
+      <c r="I9" s="4">
         <v>71</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
